--- a/biology/Zoologie/Gasosaurus/Gasosaurus.xlsx
+++ b/biology/Zoologie/Gasosaurus/Gasosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gasosaurus constructus
-Gasosaurus (en chinois : 气龙属) est un genre éteint de dinosaures théropodes, découvert dans la formation de Dashanpu, dans le Sichuan (Chine)[1]. Il est daté du Jurassique moyen, il y a environ entre 168 et 164 Ma (millions d'années).
-Une seule espèce est rattachée au genre, Gasosaurus constructus, décrite par Dong Zhiming et Zilu Tang en 1985[1].
+Gasosaurus (en chinois : 气龙属) est un genre éteint de dinosaures théropodes, découvert dans la formation de Dashanpu, dans le Sichuan (Chine). Il est daté du Jurassique moyen, il y a environ entre 168 et 164 Ma (millions d'années).
+Une seule espèce est rattachée au genre, Gasosaurus constructus, décrite par Dong Zhiming et Zilu Tang en 1985.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme un certain nombre de dinosaures récemment nommés, Gasosaurus a reçu un nom surprenant, sans aucun rapport avec son apparence ou ses mœurs. Décrit en 1985, il a été nommé « lézard du gaz » en l'honneur de la compagnie gazière chinoise à l'origine de la découverte du site[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme un certain nombre de dinosaures récemment nommés, Gasosaurus a reçu un nom surprenant, sans aucun rapport avec son apparence ou ses mœurs. Décrit en 1985, il a été nommé « lézard du gaz » en l'honneur de la compagnie gazière chinoise à l'origine de la découverte du site.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tant que d'autres restes de l'animal ne seront pas découverts, ce dinosaure probablement carnosaurien restera mystérieux.
 Seuls quelques éléments d'un individu ont été retrouvés : une patte antérieure, une postérieure et le bassin.
@@ -577,9 +593,11 @@
           <t>Canular de l’œuf éclos en 2014</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, une série de posts Internet viraux ont circulé, annonçant qu'un « œuf de Gasosaurus vieux de 200 millions d'années avait éclos dans le musée d'histoire naturelle de Berlin »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, une série de posts Internet viraux ont circulé, annonçant qu'un « œuf de Gasosaurus vieux de 200 millions d'années avait éclos dans le musée d'histoire naturelle de Berlin ».
 </t>
         </is>
       </c>
